--- a/android_EaseCare.xlsx
+++ b/android_EaseCare.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khaing Min\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Android_WorkSpace\EaseCare\EaseCare\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sms api" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,12 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>https://www.raywenderlich.com/3-firebase-tutorial-getting-started</t>
   </si>
   <si>
     <t>https://www.androidhive.info/2016/10/android-working-with-firebase-realtime-database/</t>
+  </si>
+  <si>
+    <t>getting started</t>
+  </si>
+  <si>
+    <t>file:///C:/Users/Khaing%20Min/Downloads/Getting%20Started%20with%20IdeaMart%20APIs.pdf</t>
+  </si>
+  <si>
+    <t>Main url</t>
+  </si>
+  <si>
+    <t>https://xerovit.io</t>
+  </si>
+  <si>
+    <t>for local host server</t>
+  </si>
+  <si>
+    <t>https://serveo.net/</t>
+  </si>
+  <si>
+    <t>idea mart</t>
+  </si>
+  <si>
+    <t>https://ideamart.io/</t>
   </si>
 </sst>
 </file>
@@ -360,7 +385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -383,4 +408,65 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="https://xerovit.io/"/>
+    <hyperlink ref="C14" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3" display="../../../Users/Khaing Min/Downloads/Getting Started with IdeaMart APIs.pdf"/>
+    <hyperlink ref="C11" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>